--- a/Testdata File/TestData.xlsx
+++ b/Testdata File/TestData.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4B8CB8F9-C9E2-4689-B1A7-F8C0E3795AFF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16560" windowHeight="7596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16560" windowHeight="7596"/>
   </bookViews>
   <sheets>
     <sheet name="Testing" sheetId="4" r:id="rId1"/>
@@ -110,9 +109,6 @@
     <t>Open Url, Enter First Name,Enter Last Name,Click on Join Now Button and Verify Validations Message in Third Input box</t>
   </si>
   <si>
-    <t>Please enter your email address</t>
-  </si>
-  <si>
     <t>Open Url, Enter First Name,Enter Last Name,Enter Valid Email Id, Click on Join Now Button and Verify Validations Message in Fourth Input box</t>
   </si>
   <si>
@@ -122,9 +118,6 @@
     <t>Open Url, Enter First Name,Enter Last Name,Enter InValid Email Id,Enter Valid Password, Click on Join Now Button and Verify Validations Message in Fourth Input box</t>
   </si>
   <si>
-    <t>Please enter a valid email address</t>
-  </si>
-  <si>
     <t>First Name</t>
   </si>
   <si>
@@ -150,12 +143,18 @@
   </si>
   <si>
     <t>Dipankar2020</t>
+  </si>
+  <si>
+    <t>Please enter your email address or mobile number</t>
+  </si>
+  <si>
+    <t>Please enter a valid email addressss</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -471,23 +470,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -523,23 +505,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -715,11 +680,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -727,7 +692,7 @@
     <col min="1" max="1" width="10" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="18.33203125" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="128.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="40.6640625" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="16.88671875" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="16" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="25.33203125" customWidth="1" collapsed="1"/>
@@ -759,16 +724,16 @@
         <v>28</v>
       </c>
       <c r="E1" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>37</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>39</v>
       </c>
       <c r="I1" s="21"/>
       <c r="J1" s="21"/>
@@ -840,7 +805,7 @@
         <v>29</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -875,13 +840,13 @@
         <v>30</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -912,19 +877,19 @@
         <v>24</v>
       </c>
       <c r="C5" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>33</v>
-      </c>
       <c r="E5" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="23" t="s">
         <v>40</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>42</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -954,22 +919,22 @@
         <v>24</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F6" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="22" t="s">
-        <v>43</v>
-      </c>
       <c r="H6" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -1480,7 +1445,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G5" r:id="rId1" xr:uid="{7DE146BB-D2B6-4691-B3F3-3BFD6C0E42A0}"/>
+    <hyperlink ref="G5" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
